--- a/file/information.xlsx
+++ b/file/information.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -29,7 +29,7 @@
     <t>电话</t>
   </si>
   <si>
-    <t>地址</t>
+    <t>邮箱</t>
   </si>
   <si>
     <t>部门</t>
@@ -53,7 +53,7 @@
     <t>17753813940</t>
   </si>
   <si>
-    <t>泰安</t>
+    <t>mail@dudulu.net</t>
   </si>
   <si>
     <t>财务部</t>
@@ -74,7 +74,7 @@
     <t>17852031234</t>
   </si>
   <si>
-    <t>青岛</t>
+    <t>jh@dudulu.net</t>
   </si>
   <si>
     <t>人力资源部</t>
@@ -92,7 +92,7 @@
     <t>17852043543</t>
   </si>
   <si>
-    <t>德州</t>
+    <t>lxw@dudulu.net</t>
   </si>
   <si>
     <t>生产技术部</t>
@@ -110,7 +110,7 @@
     <t>17812345676</t>
   </si>
   <si>
-    <t>淄博</t>
+    <t>yfl@dudulu.net</t>
   </si>
   <si>
     <t>安全监察部</t>
@@ -128,7 +128,7 @@
     <t>17780342573</t>
   </si>
   <si>
-    <t>济南</t>
+    <t>qyn@dudulu.net</t>
   </si>
   <si>
     <t>计划营销部</t>
@@ -146,6 +146,9 @@
     <t>17823354255</t>
   </si>
   <si>
+    <t>qsh@dudulu.net</t>
+  </si>
+  <si>
     <t>2018-03-02</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
     <t>15232453255</t>
   </si>
   <si>
+    <t>zm@dudulu.net</t>
+  </si>
+  <si>
     <t>2019-04-30</t>
   </si>
   <si>
@@ -170,6 +176,9 @@
     <t>17842354354</t>
   </si>
   <si>
+    <t>wq@dudulu.net</t>
+  </si>
+  <si>
     <t>2020-01-01</t>
   </si>
   <si>
@@ -182,70 +191,10 @@
     <t>17832454356</t>
   </si>
   <si>
+    <t>lhk@dudulu.net</t>
+  </si>
+  <si>
     <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>冈部伦太郎</t>
-  </si>
-  <si>
-    <t>1996-01-01</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>2010-09-01</t>
-  </si>
-  <si>
-    <t>椎名真由理</t>
-  </si>
-  <si>
-    <t>1996-02-01</t>
-  </si>
-  <si>
-    <t>17831432435</t>
-  </si>
-  <si>
-    <t>桥田至</t>
-  </si>
-  <si>
-    <t>1995-12-18</t>
-  </si>
-  <si>
-    <t>17812343245</t>
-  </si>
-  <si>
-    <t>牧濑红莉栖</t>
-  </si>
-  <si>
-    <t>17843543646</t>
-  </si>
-  <si>
-    <t>2010-07-29</t>
-  </si>
-  <si>
-    <t>阿万音铃羽</t>
-  </si>
-  <si>
-    <t>2020-01-05</t>
-  </si>
-  <si>
-    <t>17832542345</t>
-  </si>
-  <si>
-    <t>2020-01-06</t>
-  </si>
-  <si>
-    <t>桐生萌郁</t>
-  </si>
-  <si>
-    <t>1995-05-30</t>
-  </si>
-  <si>
-    <t>17832432554</t>
-  </si>
-  <si>
-    <t>2020-07-30</t>
   </si>
 </sst>
 </file>
@@ -498,7 +447,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -507,7 +456,7 @@
         <v>2346.0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -515,19 +464,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -536,7 +485,7 @@
         <v>2133.0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -544,19 +493,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -565,7 +514,7 @@
         <v>1934.0</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -573,19 +522,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -594,267 +543,6 @@
         <v>2341.0</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2500.0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2900.0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9999.0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2500.0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2900.0</v>
-      </c>
-      <c r="I19" t="s">
         <v>60</v>
       </c>
     </row>

--- a/file/information.xlsx
+++ b/file/information.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -41,25 +41,40 @@
     <t>入职日期</t>
   </si>
   <si>
-    <t>冈部伦太郎</t>
+    <t>郑延亮</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>1996-01-01</t>
+    <t>1999-12-13</t>
   </si>
   <si>
     <t>17753813940</t>
   </si>
   <si>
-    <t>gbltl@dudulu.net</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>2010-09-01</t>
+    <t>mail@dudulu.net</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>2017-09-01</t>
+  </si>
+  <si>
+    <t>刘洪凯</t>
+  </si>
+  <si>
+    <t>1998-03-04</t>
+  </si>
+  <si>
+    <t>17832454356</t>
+  </si>
+  <si>
+    <t>lhk@dudulu.net</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
   </si>
 </sst>
 </file>
@@ -152,7 +167,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -173,10 +188,39 @@
         <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>3000.55</v>
+        <v>2000.0</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2341.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
